--- a/DATA/SALES/SALES_REPORTS/amp monthly december.xlsx
+++ b/DATA/SALES/SALES_REPORTS/amp monthly december.xlsx
@@ -5548,11 +5548,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5790,7 +5790,7 @@
   <dimension ref="A1:Q599"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B589" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N604" activeCellId="0" sqref="N604"/>
+      <selection pane="topLeft" activeCell="B600" activeCellId="0" sqref="B600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
